--- a/tarefas.xlsx
+++ b/tarefas.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10428"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -116,9 +116,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,17 +433,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.77734375" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -466,13 +467,19 @@
       <c r="B2" s="1">
         <v>42971.833333333336</v>
       </c>
+      <c r="C2" s="1">
+        <v>42971.888888888891</v>
+      </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>42971.902777777781</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>

--- a/tarefas.xlsx
+++ b/tarefas.xlsx
@@ -437,7 +437,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -481,6 +481,9 @@
       <c r="B3" s="1">
         <v>42971.902777777781</v>
       </c>
+      <c r="C3" s="1">
+        <v>42971.958333333336</v>
+      </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
@@ -488,6 +491,9 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
+      </c>
+      <c r="B4" s="1">
+        <v>42973.395833333336</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>

--- a/tarefas.xlsx
+++ b/tarefas.xlsx
@@ -116,10 +116,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,13 +438,14 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.77734375" customWidth="1"/>
-    <col min="2" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -495,6 +497,9 @@
       <c r="B4" s="1">
         <v>42973.395833333336</v>
       </c>
+      <c r="C4" s="3">
+        <v>42975.875</v>
+      </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
